--- a/file/doge_weekly_return.xlsx
+++ b/file/doge_weekly_return.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3801,15 +3801,61 @@
         <v>44550</v>
       </c>
       <c r="D149" t="n">
-        <v>0.170205429</v>
+        <v>0.1694277792</v>
       </c>
       <c r="E149" t="n">
+        <v>0.1920179357</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.002234255455634382</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.1281540008926507</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>148</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>44557</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.1899679581</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.1745944373</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.1212326514399595</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-0.0907389111151663</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>149</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.1745684611</v>
+      </c>
+      <c r="E151" t="n">
         <v>0</v>
       </c>
-      <c r="F149" t="n">
-        <v>0.002345349703303912</v>
-      </c>
-      <c r="G149" t="n">
+      <c r="F151" t="n">
+        <v>-0.08106365491328615</v>
+      </c>
+      <c r="G151" t="n">
         <v>-1</v>
       </c>
     </row>
